--- a/Income/MMC_inc.xlsx
+++ b/Income/MMC_inc.xlsx
@@ -1653,16 +1653,16 @@
         <v>1.0015</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.0015</v>
+        <v>1.0016</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.0016</v>
+        <v>1.0018</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.9999</v>
+        <v>1.0001</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.9999</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1.0</v>
@@ -1783,13 +1783,13 @@
         <v>0.1811</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.1768</v>
+        <v>0.1769</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.163</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.1607</v>
+        <v>0.1608</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.1681</v>
@@ -2161,16 +2161,16 @@
         <v>0.1972</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1762</v>
+        <v>0.1711</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1466</v>
+        <v>0.1415</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0995</v>
+        <v>0.0945</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1223</v>
+        <v>0.1171</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126</v>
@@ -3705,7 +3705,7 @@
         <v>0.223</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2178</v>
+        <v>0.2179</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0.2039</v>
@@ -3829,16 +3829,16 @@
         <v>0.2171</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.173</v>
+        <v>0.1679</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.147</v>
+        <v>0.1418</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.1491</v>
